--- a/Data_Parameterization/bin/TestData/SAUCE_LOGIN.xlsx
+++ b/Data_Parameterization/bin/TestData/SAUCE_LOGIN.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JANBASK\JULY_WEEKDAY_BATCH_2\Data_Parameterization\src\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86F7776-2216-4A23-A5F6-5332A0A4694E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E95774A-7424-4257-B878-5962553FB652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAUCE" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="FORM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>USERNAME</t>
   </si>
@@ -46,6 +48,30 @@
   </si>
   <si>
     <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>interest_rate</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -373,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -428,4 +454,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5328416A-1FF8-4036-BD68-1926A695E518}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEEEE16-6DF4-42C3-8645-DBC3FD4C9C61}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>